--- a/Room parametric.xlsx
+++ b/Room parametric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jv5283qp/Google Drive/Classes/PHYS 333/Lab5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal Drive\Classes\PHYS 333\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9722A87E-283C-4C47-8855-57051351B30A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2885F282-859B-4501-AA30-910FBCF4F1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20000" xr2:uid="{738AC967-A3A2-F44C-8A3B-AE3BBE4B2CEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{738AC967-A3A2-F44C-8A3B-AE3BBE4B2CEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Imagine that this is a room</a:t>
+              <a:t> Parametric Mapping of Living Room</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1400,15 +1400,15 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
